--- a/assets/RTS/RTS.xlsx
+++ b/assets/RTS/RTS.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="18">
   <si>
     <t>ENV</t>
   </si>
@@ -27,15 +27,6 @@
     <t>AppInUse</t>
   </si>
   <si>
-    <t>RTS</t>
-  </si>
-  <si>
-    <t>PAFService</t>
-  </si>
-  <si>
-    <t>SanctionActimzeService</t>
-  </si>
-  <si>
     <t>WEEKDAY STOP</t>
   </si>
   <si>
@@ -69,13 +60,19 @@
     <t>17:00</t>
   </si>
   <si>
-    <t>CumlativeService</t>
-  </si>
-  <si>
-    <t>SAFEService</t>
-  </si>
-  <si>
-    <t>CBBRService</t>
+    <t>PAF service</t>
+  </si>
+  <si>
+    <t>Cumlative Service</t>
+  </si>
+  <si>
+    <t>CHINA SAFE Service</t>
+  </si>
+  <si>
+    <t>Prepaid Cards Service</t>
+  </si>
+  <si>
+    <t>Sanction Actimize Service</t>
   </si>
 </sst>
 </file>
@@ -407,12 +404,12 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -425,136 +422,136 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="2" t="s">
+      <c r="D7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
